--- a/dakwah/absen-tarbiyah/ABSEN TARBIYAH DT-R - juli 2023.xlsx
+++ b/dakwah/absen-tarbiyah/ABSEN TARBIYAH DT-R - juli 2023.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dakwah\absen-tarbiyah\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\dakwah\absen-tarbiyah\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EEF7DF-5F35-4D92-80F2-76F65FAFB85B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1102C58D-B9A2-4631-974F-4900948D0AD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7D2FF171-1EFE-46EA-8313-FDDD65387EF4}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t xml:space="preserve">ABSENSI KEGIATAN </t>
   </si>
@@ -148,6 +148,24 @@
   </si>
   <si>
     <t>1. Sakit</t>
+  </si>
+  <si>
+    <t>2. Zoom pendaftaran kuliah</t>
+  </si>
+  <si>
+    <t>H adir</t>
+  </si>
+  <si>
+    <t>T ertib</t>
+  </si>
+  <si>
+    <t>L engkap</t>
+  </si>
+  <si>
+    <t>D isiplin</t>
+  </si>
+  <si>
+    <t>2. Kerjaan di luar kota</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2F16C6-FBB7-433A-8348-CEDB81B74204}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1320,7 +1338,7 @@
     <col min="15" max="15" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1337,7 +1355,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="21" customHeight="1">
+    <row r="2" spans="1:16" ht="21" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="62" t="s">
         <v>0</v>
@@ -1356,7 +1374,7 @@
       <c r="N2" s="62"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="21" customHeight="1">
+    <row r="3" spans="1:16" ht="21" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="62" t="s">
         <v>1</v>
@@ -1375,7 +1393,7 @@
       <c r="N3" s="62"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="21" customHeight="1">
+    <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="62" t="s">
         <v>2</v>
@@ -1394,7 +1412,7 @@
       <c r="N4" s="62"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -1411,7 +1429,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="63" t="s">
         <v>3</v>
@@ -1438,7 +1456,7 @@
       </c>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1">
+    <row r="7" spans="1:16" ht="15.75" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -1474,8 +1492,11 @@
       </c>
       <c r="N7" s="69"/>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="19.5" customHeight="1">
+      <c r="P7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="9">
         <v>1</v>
@@ -1489,7 +1510,9 @@
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
       <c r="K8" s="14"/>
@@ -1497,8 +1520,11 @@
       <c r="M8" s="45"/>
       <c r="N8" s="41"/>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="19.5" customHeight="1">
+      <c r="P8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="15">
         <v>2</v>
@@ -1512,7 +1538,9 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="16"/>
+      <c r="H9" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="I9" s="16"/>
       <c r="J9" s="17"/>
       <c r="K9" s="18"/>
@@ -1520,8 +1548,11 @@
       <c r="M9" s="47"/>
       <c r="N9" s="19"/>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="19.5" customHeight="1">
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="15">
         <v>3</v>
@@ -1535,7 +1566,9 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="16"/>
+      <c r="H10" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="17"/>
       <c r="K10" s="18"/>
@@ -1545,8 +1578,11 @@
         <v>35</v>
       </c>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="19.5" customHeight="1">
+      <c r="P10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="15">
         <v>4</v>
@@ -1571,7 +1607,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="19.5" customHeight="1">
+    <row r="12" spans="1:16" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="20">
         <v>5</v>
@@ -1585,7 +1621,9 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="I12" s="25"/>
       <c r="J12" s="26"/>
       <c r="K12" s="27"/>
@@ -1596,7 +1634,7 @@
       </c>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="19.5" customHeight="1">
+    <row r="13" spans="1:16" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="20">
         <v>6</v>
@@ -1610,7 +1648,9 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="22"/>
+      <c r="H13" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
       <c r="K13" s="24"/>
@@ -1619,7 +1659,7 @@
       <c r="N13" s="28"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="19.5" customHeight="1">
+    <row r="14" spans="1:16" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="20">
         <v>7</v>
@@ -1644,7 +1684,7 @@
       </c>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:16" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="20">
         <v>8</v>
@@ -1665,7 +1705,7 @@
       <c r="N15" s="28"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="19.5" customHeight="1">
+    <row r="16" spans="1:16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="20">
         <v>10</v>
@@ -1702,7 +1742,9 @@
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="22"/>
+      <c r="H17" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="I17" s="22"/>
       <c r="J17" s="23"/>
       <c r="K17" s="24"/>
@@ -1746,13 +1788,17 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="I19" s="22"/>
       <c r="J19" s="23"/>
       <c r="K19" s="24"/>
       <c r="L19" s="46"/>
       <c r="M19" s="49"/>
-      <c r="N19" s="28"/>
+      <c r="N19" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
@@ -1794,13 +1840,17 @@
       <c r="E21" s="50"/>
       <c r="F21" s="51"/>
       <c r="G21" s="52"/>
-      <c r="H21" s="50"/>
+      <c r="H21" s="50" t="s">
+        <v>34</v>
+      </c>
       <c r="I21" s="50"/>
       <c r="J21" s="51"/>
       <c r="K21" s="53"/>
       <c r="L21" s="54"/>
       <c r="M21" s="53"/>
-      <c r="N21" s="32"/>
+      <c r="N21" s="32" t="s">
+        <v>45</v>
+      </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
@@ -1815,6 +1865,9 @@
         <v>33</v>
       </c>
       <c r="F22" s="57"/>
+      <c r="H22" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="N22" s="58"/>
       <c r="O22" s="1"/>
     </row>
@@ -1847,6 +1900,9 @@
         <v>32</v>
       </c>
       <c r="D24" s="34"/>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
       <c r="K24" s="34"/>
       <c r="M24" s="36"/>
       <c r="N24" s="34"/>
@@ -1884,7 +1940,9 @@
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="39"/>
-      <c r="F27" s="31"/>
+      <c r="F27" s="31" t="s">
+        <v>31</v>
+      </c>
       <c r="G27" s="31"/>
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
